--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.808100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.808100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F76F7691-0975-49A2-B545-C2410E89687F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A70F99C1-D031-4EFB-9FE7-B305BDD606AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T063229.251" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T065102.678" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="75">
   <si>
     <t>Do Ty</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>BBM MAJA 07-02 SD 12-02-2024</t>
+  </si>
+  <si>
+    <t>BENSIN MAJA 13 -02 SD 19-02-24</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1084,7 +1087,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ8"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,23 +1654,137 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>24002602</v>
+      </c>
+      <c r="D5">
+        <v>1204</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45344</v>
+      </c>
       <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>297.02</v>
+      </c>
+      <c r="H5">
+        <v>297.02</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4693800</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4693800</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5">
+        <v>15803</v>
+      </c>
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5">
+        <v>2105195</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5">
+        <v>57064734</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP5">
+        <v>1204</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="2">
-        <v>1074.9100000000001</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1074.9100000000001</v>
-      </c>
-      <c r="L5" s="2">
-        <v>16986900</v>
-      </c>
-      <c r="N5" s="2">
-        <v>16986900</v>
-      </c>
-      <c r="AG5">
-        <v>3</v>
+      <c r="AU5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX5">
+        <v>24001154</v>
+      </c>
+      <c r="AY5">
+        <v>808100</v>
+      </c>
+      <c r="AZ5">
+        <v>1204.8081</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
@@ -1675,19 +1792,19 @@
         <v>71</v>
       </c>
       <c r="G6" s="2">
-        <v>1074.9100000000001</v>
+        <v>1371.93</v>
       </c>
       <c r="H6" s="2">
-        <v>1074.9100000000001</v>
+        <v>1371.93</v>
       </c>
       <c r="L6" s="2">
-        <v>16986900</v>
+        <v>21680700</v>
       </c>
       <c r="N6" s="2">
-        <v>16986900</v>
+        <v>21680700</v>
       </c>
       <c r="AG6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
@@ -1695,24 +1812,44 @@
         <v>72</v>
       </c>
       <c r="G7" s="2">
-        <v>1074.9100000000001</v>
+        <v>1371.93</v>
       </c>
       <c r="H7" s="2">
-        <v>1074.9100000000001</v>
+        <v>1371.93</v>
       </c>
       <c r="L7" s="2">
-        <v>16986900</v>
+        <v>21680700</v>
       </c>
       <c r="N7" s="2">
-        <v>16986900</v>
+        <v>21680700</v>
       </c>
       <c r="AG7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>73</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1371.93</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1371.93</v>
+      </c>
+      <c r="L8" s="2">
+        <v>21680700</v>
+      </c>
+      <c r="N8" s="2">
+        <v>21680700</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.808100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.808100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A70F99C1-D031-4EFB-9FE7-B305BDD606AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57503309-29B7-466A-B54A-099DBF225E95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T065102.678" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T065441.924" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="82">
   <si>
     <t>Do Ty</t>
   </si>
@@ -233,6 +233,27 @@
   </si>
   <si>
     <t>BENSIN MAJA 13 -02 SD 19-02-24</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>FUEL FOR MOTOR VEHICLE</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>TSANTIKA</t>
+  </si>
+  <si>
+    <t>BENSIN</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1087,7 +1108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1788,60 +1809,270 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>24001025</v>
+      </c>
+      <c r="D6">
+        <v>1204</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45350</v>
+      </c>
       <c r="F6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1371.93</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1371.93</v>
+        <v>73</v>
+      </c>
+      <c r="G6">
+        <v>93.65</v>
+      </c>
+      <c r="H6">
+        <v>93.65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
       </c>
       <c r="L6" s="2">
-        <v>21680700</v>
+        <v>1480000</v>
       </c>
       <c r="N6" s="2">
-        <v>21680700</v>
-      </c>
-      <c r="AG6">
-        <v>4</v>
+        <v>1480000</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6">
+        <v>15803</v>
+      </c>
+      <c r="T6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6">
+        <v>2106355</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP6">
+        <v>1204</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY6">
+        <v>808100</v>
+      </c>
+      <c r="AZ6">
+        <v>1204.8081</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>24001033</v>
+      </c>
+      <c r="D7">
+        <v>1204</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45351</v>
+      </c>
       <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1371.93</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1371.93</v>
+        <v>73</v>
+      </c>
+      <c r="G7">
+        <v>3.16</v>
+      </c>
+      <c r="H7">
+        <v>3.16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
       </c>
       <c r="L7" s="2">
-        <v>21680700</v>
+        <v>50000</v>
       </c>
       <c r="N7" s="2">
-        <v>21680700</v>
-      </c>
-      <c r="AG7">
-        <v>4</v>
+        <v>50000</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7">
+        <v>15803</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7">
+        <v>2106428</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP7">
+        <v>1204</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY7">
+        <v>808100</v>
+      </c>
+      <c r="AZ7">
+        <v>1204.8081</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G8" s="2">
-        <v>1371.93</v>
+        <v>1468.74</v>
       </c>
       <c r="H8" s="2">
-        <v>1371.93</v>
+        <v>1468.74</v>
       </c>
       <c r="L8" s="2">
-        <v>21680700</v>
+        <v>23210700</v>
       </c>
       <c r="N8" s="2">
-        <v>21680700</v>
+        <v>23210700</v>
       </c>
       <c r="AG8">
         <v>4</v>
@@ -1849,7 +2080,47 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1468.74</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1468.74</v>
+      </c>
+      <c r="L9" s="2">
+        <v>23210700</v>
+      </c>
+      <c r="N9" s="2">
+        <v>23210700</v>
+      </c>
+      <c r="AG9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1468.74</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1468.74</v>
+      </c>
+      <c r="L10" s="2">
+        <v>23210700</v>
+      </c>
+      <c r="N10" s="2">
+        <v>23210700</v>
+      </c>
+      <c r="AG10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
